--- a/pred_ohlcv/54_21/2019-11-20 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 REP ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>975.6344131386859</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>975.6344131386859</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>928.9793131386859</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>968.073913138686</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>955.994913138686</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>962.2508896092742</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>962.2508896092742</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1169.907689609274</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1158.647689609274</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>989.0622896092743</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>989.0622896092743</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>898.0316896092743</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1130.248452419192</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1130.248452419192</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1141.528652419192</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1092.632752419192</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1307.028177622444</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1335.003177622444</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1283.973177622443</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1252.743177622443</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1205.870977622443</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5173.548606407719</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5449.272806407718</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5921.328806407718</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4984.547506407718</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7954.192206407718</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6346.285876062761</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>7190.193683437394</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>7769.618383437393</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8650.232683437393</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9107.316583437392</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10096.54078343739</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10389.51358343739</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10283.03758343739</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14080.74563126068</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>14367.49361907552</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>15944.80761907552</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15593.56845115999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>15995.42095115999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>15916.34245006709</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>16198.98735006709</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>16672.56895006709</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>16475.30045006709</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>16554.7374500671</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>15957.0519500671</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>16043.78309554636</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>15798.12509554636</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>14349.48289554636</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>13582.30950035736</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>13506.82090035736</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>13321.10670035736</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>12733.20440035736</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>13355.99990035736</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>12825.71583255248</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>13042.76433255248</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>12960.90453255248</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>12960.90453255248</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>12966.24143255248</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13058.74416984901</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>13389.97196984901</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 REP ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>968.073913138686</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>955.994913138686</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1335.003177622444</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1282.574177622444</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1283.973177622443</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1252.743177622443</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1205.870977622443</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1344.475477622443</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5173.548606407719</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5449.272806407718</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5921.328806407718</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4984.547506407718</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7954.192206407718</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6346.285876062761</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>7190.193683437394</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>7769.618383437393</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8650.232683437393</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>9107.316583437392</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>10096.54078343739</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10389.51358343739</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10283.03758343739</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>14080.74563126068</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>13861.02713126068</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>15272.33831907552</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>15193.81771907552</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>14367.49361907552</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>15944.80761907552</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>15469.06691907552</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>15593.56845115999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>15995.42095115999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>15916.34245006709</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>16198.98735006709</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>16672.56895006709</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>16475.30045006709</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>16554.7374500671</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>15957.0519500671</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>16043.78309554636</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>15798.12509554636</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>14878.16019554636</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>14349.48289554636</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>13582.30950035736</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>13506.82090035736</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>13321.10670035736</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>12733.20440035736</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>13355.99990035736</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>12825.71583255248</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>13042.76433255248</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>13063.90196984901</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13058.74416984901</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13821.40476984901</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>14329.96886984902</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>12114.78996485026</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>12031.22766485027</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
